--- a/020-内部_プログラミング設計/納品物/022-クラス仕様書/商品検索機能/Serviceのクラス仕様書(AbstractService).xlsx
+++ b/020-内部_プログラミング設計/納品物/022-クラス仕様書/商品検索機能/Serviceのクラス仕様書(AbstractService).xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D607B9C-42AF-40B8-B219-CD376CCA4AE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E081CF-9E2C-466E-A1DF-0007D89E805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-8370" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="クラス仕様" sheetId="1" r:id="rId1"/>
@@ -186,10 +186,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ecsite</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -360,6 +356,10 @@
       <t>タケシト</t>
     </rPh>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>"ecsite"</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -701,14 +701,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -716,22 +710,28 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -743,14 +743,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,83 +1107,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="36">
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="37">
         <v>45000</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -1383,82 +1383,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="str">
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="39" t="str">
         <f>G5</f>
         <v>AbstractService</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="35" t="s">
-        <v>60</v>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="39" t="s">
+        <v>59</v>
       </c>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="36">
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="37">
         <v>45565</v>
       </c>
-      <c r="BE2" s="36"/>
-      <c r="BF2" s="36"/>
-      <c r="BG2" s="36"/>
-      <c r="BH2" s="36"/>
-      <c r="BI2" s="36"/>
+      <c r="BE2" s="37"/>
+      <c r="BF2" s="37"/>
+      <c r="BG2" s="37"/>
+      <c r="BH2" s="37"/>
+      <c r="BI2" s="37"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -1721,964 +1721,949 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
-        <v>46</v>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>45</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
-        <v>59</v>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>58</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="38" t="s">
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="35"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="38"/>
-      <c r="U6" s="38"/>
-      <c r="V6" s="38"/>
-      <c r="W6" s="38"/>
-      <c r="X6" s="38"/>
-      <c r="Y6" s="38"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="37" t="s">
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="AE6" s="37"/>
-      <c r="AF6" s="37"/>
-      <c r="AG6" s="37"/>
-      <c r="AH6" s="37"/>
-      <c r="AI6" s="37"/>
-      <c r="AJ6" s="38" t="s">
+      <c r="AE6" s="35"/>
+      <c r="AF6" s="35"/>
+      <c r="AG6" s="35"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="35"/>
+      <c r="AJ6" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="AK6" s="38"/>
-      <c r="AL6" s="38"/>
-      <c r="AM6" s="38"/>
-      <c r="AN6" s="38"/>
-      <c r="AO6" s="38"/>
-      <c r="AP6" s="38"/>
-      <c r="AQ6" s="38"/>
-      <c r="AR6" s="38"/>
-      <c r="AS6" s="38"/>
-      <c r="AT6" s="38"/>
-      <c r="AU6" s="38"/>
-      <c r="AV6" s="38"/>
-      <c r="AW6" s="38"/>
-      <c r="AX6" s="38"/>
-      <c r="AY6" s="38"/>
-      <c r="AZ6" s="38"/>
-      <c r="BA6" s="38"/>
-      <c r="BB6" s="38"/>
-      <c r="BC6" s="38"/>
-      <c r="BD6" s="38"/>
-      <c r="BE6" s="38"/>
-      <c r="BF6" s="38"/>
-      <c r="BG6" s="38"/>
-      <c r="BH6" s="38"/>
-      <c r="BI6" s="38"/>
+      <c r="AK6" s="36"/>
+      <c r="AL6" s="36"/>
+      <c r="AM6" s="36"/>
+      <c r="AN6" s="36"/>
+      <c r="AO6" s="36"/>
+      <c r="AP6" s="36"/>
+      <c r="AQ6" s="36"/>
+      <c r="AR6" s="36"/>
+      <c r="AS6" s="36"/>
+      <c r="AT6" s="36"/>
+      <c r="AU6" s="36"/>
+      <c r="AV6" s="36"/>
+      <c r="AW6" s="36"/>
+      <c r="AX6" s="36"/>
+      <c r="AY6" s="36"/>
+      <c r="AZ6" s="36"/>
+      <c r="BA6" s="36"/>
+      <c r="BB6" s="36"/>
+      <c r="BC6" s="36"/>
+      <c r="BD6" s="36"/>
+      <c r="BE6" s="36"/>
+      <c r="BF6" s="36"/>
+      <c r="BG6" s="36"/>
+      <c r="BH6" s="36"/>
+      <c r="BI6" s="36"/>
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="37" t="s">
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="37"/>
-      <c r="M8" s="37"/>
-      <c r="N8" s="37"/>
-      <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
-      <c r="S8" s="37"/>
-      <c r="T8" s="37"/>
-      <c r="U8" s="37" t="s">
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="37"/>
-      <c r="W8" s="37"/>
-      <c r="X8" s="37"/>
-      <c r="Y8" s="37"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="37"/>
-      <c r="AB8" s="37"/>
-      <c r="AC8" s="37"/>
-      <c r="AD8" s="37"/>
-      <c r="AE8" s="37" t="s">
+      <c r="V8" s="35"/>
+      <c r="W8" s="35"/>
+      <c r="X8" s="35"/>
+      <c r="Y8" s="35"/>
+      <c r="Z8" s="35"/>
+      <c r="AA8" s="35"/>
+      <c r="AB8" s="35"/>
+      <c r="AC8" s="35"/>
+      <c r="AD8" s="35"/>
+      <c r="AE8" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="AF8" s="37"/>
-      <c r="AG8" s="37"/>
-      <c r="AH8" s="37"/>
-      <c r="AI8" s="37"/>
-      <c r="AJ8" s="37"/>
-      <c r="AK8" s="37"/>
-      <c r="AL8" s="37"/>
-      <c r="AM8" s="37"/>
-      <c r="AN8" s="37"/>
-      <c r="AO8" s="37" t="s">
+      <c r="AF8" s="35"/>
+      <c r="AG8" s="35"/>
+      <c r="AH8" s="35"/>
+      <c r="AI8" s="35"/>
+      <c r="AJ8" s="35"/>
+      <c r="AK8" s="35"/>
+      <c r="AL8" s="35"/>
+      <c r="AM8" s="35"/>
+      <c r="AN8" s="35"/>
+      <c r="AO8" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="AP8" s="37"/>
-      <c r="AQ8" s="37"/>
-      <c r="AR8" s="37"/>
-      <c r="AS8" s="37"/>
-      <c r="AT8" s="37"/>
-      <c r="AU8" s="37"/>
-      <c r="AV8" s="37"/>
-      <c r="AW8" s="37"/>
-      <c r="AX8" s="37"/>
-      <c r="AY8" s="37"/>
-      <c r="AZ8" s="37"/>
-      <c r="BA8" s="37"/>
-      <c r="BB8" s="37"/>
-      <c r="BC8" s="37"/>
-      <c r="BD8" s="37"/>
-      <c r="BE8" s="37"/>
-      <c r="BF8" s="37"/>
-      <c r="BG8" s="37"/>
-      <c r="BH8" s="37"/>
-      <c r="BI8" s="37"/>
+      <c r="AP8" s="35"/>
+      <c r="AQ8" s="35"/>
+      <c r="AR8" s="35"/>
+      <c r="AS8" s="35"/>
+      <c r="AT8" s="35"/>
+      <c r="AU8" s="35"/>
+      <c r="AV8" s="35"/>
+      <c r="AW8" s="35"/>
+      <c r="AX8" s="35"/>
+      <c r="AY8" s="35"/>
+      <c r="AZ8" s="35"/>
+      <c r="BA8" s="35"/>
+      <c r="BB8" s="35"/>
+      <c r="BC8" s="35"/>
+      <c r="BD8" s="35"/>
+      <c r="BE8" s="35"/>
+      <c r="BF8" s="35"/>
+      <c r="BG8" s="35"/>
+      <c r="BH8" s="35"/>
+      <c r="BI8" s="35"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="B9" s="41"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41" t="s">
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="34"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="34"/>
+      <c r="K9" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-      <c r="S9" s="41"/>
-      <c r="T9" s="41"/>
-      <c r="U9" s="41" t="s">
-        <v>58</v>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
+      <c r="O9" s="34"/>
+      <c r="P9" s="34"/>
+      <c r="Q9" s="34"/>
+      <c r="R9" s="34"/>
+      <c r="S9" s="34"/>
+      <c r="T9" s="34"/>
+      <c r="U9" s="34" t="s">
+        <v>57</v>
       </c>
-      <c r="V9" s="41"/>
-      <c r="W9" s="41"/>
-      <c r="X9" s="41"/>
-      <c r="Y9" s="41"/>
-      <c r="Z9" s="41"/>
-      <c r="AA9" s="41"/>
-      <c r="AB9" s="41"/>
-      <c r="AC9" s="41"/>
-      <c r="AD9" s="41"/>
-      <c r="AE9" s="41" t="s">
+      <c r="V9" s="34"/>
+      <c r="W9" s="34"/>
+      <c r="X9" s="34"/>
+      <c r="Y9" s="34"/>
+      <c r="Z9" s="34"/>
+      <c r="AA9" s="34"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
+      <c r="AD9" s="34"/>
+      <c r="AE9" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="AF9" s="41"/>
-      <c r="AG9" s="41"/>
-      <c r="AH9" s="41"/>
-      <c r="AI9" s="41"/>
-      <c r="AJ9" s="41"/>
-      <c r="AK9" s="41"/>
-      <c r="AL9" s="41"/>
-      <c r="AM9" s="41"/>
-      <c r="AN9" s="41"/>
-      <c r="AO9" s="41"/>
-      <c r="AP9" s="41"/>
-      <c r="AQ9" s="41"/>
-      <c r="AR9" s="41"/>
-      <c r="AS9" s="41"/>
-      <c r="AT9" s="41"/>
-      <c r="AU9" s="41"/>
-      <c r="AV9" s="41"/>
-      <c r="AW9" s="41"/>
-      <c r="AX9" s="41"/>
-      <c r="AY9" s="41"/>
-      <c r="AZ9" s="41"/>
-      <c r="BA9" s="41"/>
-      <c r="BB9" s="41"/>
-      <c r="BC9" s="41"/>
-      <c r="BD9" s="41"/>
-      <c r="BE9" s="41"/>
-      <c r="BF9" s="41"/>
-      <c r="BG9" s="41"/>
-      <c r="BH9" s="41"/>
-      <c r="BI9" s="41"/>
+      <c r="AF9" s="34"/>
+      <c r="AG9" s="34"/>
+      <c r="AH9" s="34"/>
+      <c r="AI9" s="34"/>
+      <c r="AJ9" s="34"/>
+      <c r="AK9" s="34"/>
+      <c r="AL9" s="34"/>
+      <c r="AM9" s="34"/>
+      <c r="AN9" s="34"/>
+      <c r="AO9" s="34"/>
+      <c r="AP9" s="34"/>
+      <c r="AQ9" s="34"/>
+      <c r="AR9" s="34"/>
+      <c r="AS9" s="34"/>
+      <c r="AT9" s="34"/>
+      <c r="AU9" s="34"/>
+      <c r="AV9" s="34"/>
+      <c r="AW9" s="34"/>
+      <c r="AX9" s="34"/>
+      <c r="AY9" s="34"/>
+      <c r="AZ9" s="34"/>
+      <c r="BA9" s="34"/>
+      <c r="BB9" s="34"/>
+      <c r="BC9" s="34"/>
+      <c r="BD9" s="34"/>
+      <c r="BE9" s="34"/>
+      <c r="BF9" s="34"/>
+      <c r="BG9" s="34"/>
+      <c r="BH9" s="34"/>
+      <c r="BI9" s="34"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41" t="s">
-        <v>58</v>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34" t="s">
+        <v>57</v>
       </c>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41" t="s">
-        <v>42</v>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34" t="s">
+        <v>61</v>
       </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41" t="s">
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="34"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="34"/>
+      <c r="K11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="L11" s="41"/>
-      <c r="M11" s="41"/>
-      <c r="N11" s="41"/>
-      <c r="O11" s="41"/>
-      <c r="P11" s="41"/>
-      <c r="Q11" s="41"/>
-      <c r="R11" s="41"/>
-      <c r="S11" s="41"/>
-      <c r="T11" s="41"/>
-      <c r="U11" s="41" t="s">
-        <v>58</v>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="34"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="34"/>
+      <c r="R11" s="34"/>
+      <c r="S11" s="34"/>
+      <c r="T11" s="34"/>
+      <c r="U11" s="34" t="s">
+        <v>57</v>
       </c>
-      <c r="V11" s="41"/>
-      <c r="W11" s="41"/>
-      <c r="X11" s="41"/>
-      <c r="Y11" s="41"/>
-      <c r="Z11" s="41"/>
-      <c r="AA11" s="41"/>
-      <c r="AB11" s="41"/>
-      <c r="AC11" s="41"/>
-      <c r="AD11" s="41"/>
-      <c r="AE11" s="41" t="s">
-        <v>42</v>
+      <c r="V11" s="34"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="34"/>
+      <c r="AA11" s="34"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
+      <c r="AD11" s="34"/>
+      <c r="AE11" s="34" t="s">
+        <v>61</v>
       </c>
-      <c r="AF11" s="41"/>
-      <c r="AG11" s="41"/>
-      <c r="AH11" s="41"/>
-      <c r="AI11" s="41"/>
-      <c r="AJ11" s="41"/>
-      <c r="AK11" s="41"/>
-      <c r="AL11" s="41"/>
-      <c r="AM11" s="41"/>
-      <c r="AN11" s="41"/>
-      <c r="AO11" s="41"/>
-      <c r="AP11" s="41"/>
-      <c r="AQ11" s="41"/>
-      <c r="AR11" s="41"/>
-      <c r="AS11" s="41"/>
-      <c r="AT11" s="41"/>
-      <c r="AU11" s="41"/>
-      <c r="AV11" s="41"/>
-      <c r="AW11" s="41"/>
-      <c r="AX11" s="41"/>
-      <c r="AY11" s="41"/>
-      <c r="AZ11" s="41"/>
-      <c r="BA11" s="41"/>
-      <c r="BB11" s="41"/>
-      <c r="BC11" s="41"/>
-      <c r="BD11" s="41"/>
-      <c r="BE11" s="41"/>
-      <c r="BF11" s="41"/>
-      <c r="BG11" s="41"/>
-      <c r="BH11" s="41"/>
-      <c r="BI11" s="41"/>
+      <c r="AF11" s="34"/>
+      <c r="AG11" s="34"/>
+      <c r="AH11" s="34"/>
+      <c r="AI11" s="34"/>
+      <c r="AJ11" s="34"/>
+      <c r="AK11" s="34"/>
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="34"/>
+      <c r="AP11" s="34"/>
+      <c r="AQ11" s="34"/>
+      <c r="AR11" s="34"/>
+      <c r="AS11" s="34"/>
+      <c r="AT11" s="34"/>
+      <c r="AU11" s="34"/>
+      <c r="AV11" s="34"/>
+      <c r="AW11" s="34"/>
+      <c r="AX11" s="34"/>
+      <c r="AY11" s="34"/>
+      <c r="AZ11" s="34"/>
+      <c r="BA11" s="34"/>
+      <c r="BB11" s="34"/>
+      <c r="BC11" s="34"/>
+      <c r="BD11" s="34"/>
+      <c r="BE11" s="34"/>
+      <c r="BF11" s="34"/>
+      <c r="BG11" s="34"/>
+      <c r="BH11" s="34"/>
+      <c r="BI11" s="34"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="37"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="37"/>
-      <c r="Q13" s="37"/>
-      <c r="R13" s="37"/>
-      <c r="S13" s="37"/>
-      <c r="T13" s="37"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="37"/>
-      <c r="W13" s="37"/>
-      <c r="X13" s="37"/>
-      <c r="Y13" s="37"/>
-      <c r="Z13" s="37"/>
-      <c r="AA13" s="37"/>
-      <c r="AB13" s="37"/>
-      <c r="AC13" s="37"/>
-      <c r="AD13" s="37"/>
-      <c r="AE13" s="37"/>
-      <c r="AF13" s="37"/>
-      <c r="AG13" s="37"/>
-      <c r="AH13" s="37"/>
-      <c r="AI13" s="37"/>
-      <c r="AJ13" s="37"/>
-      <c r="AK13" s="37"/>
-      <c r="AL13" s="37"/>
-      <c r="AM13" s="37"/>
-      <c r="AN13" s="37"/>
-      <c r="AO13" s="37"/>
-      <c r="AP13" s="37"/>
-      <c r="AQ13" s="37"/>
-      <c r="AR13" s="37"/>
-      <c r="AS13" s="37"/>
-      <c r="AT13" s="37"/>
-      <c r="AU13" s="37"/>
-      <c r="AV13" s="37"/>
-      <c r="AW13" s="37"/>
-      <c r="AX13" s="37"/>
-      <c r="AY13" s="37"/>
-      <c r="AZ13" s="37"/>
-      <c r="BA13" s="37"/>
-      <c r="BB13" s="37"/>
-      <c r="BC13" s="37"/>
-      <c r="BD13" s="37"/>
-      <c r="BE13" s="37"/>
-      <c r="BF13" s="37"/>
-      <c r="BG13" s="37"/>
-      <c r="BH13" s="37"/>
-      <c r="BI13" s="37"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="35"/>
+      <c r="P13" s="35"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="35"/>
+      <c r="X13" s="35"/>
+      <c r="Y13" s="35"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="35"/>
+      <c r="AB13" s="35"/>
+      <c r="AC13" s="35"/>
+      <c r="AD13" s="35"/>
+      <c r="AE13" s="35"/>
+      <c r="AF13" s="35"/>
+      <c r="AG13" s="35"/>
+      <c r="AH13" s="35"/>
+      <c r="AI13" s="35"/>
+      <c r="AJ13" s="35"/>
+      <c r="AK13" s="35"/>
+      <c r="AL13" s="35"/>
+      <c r="AM13" s="35"/>
+      <c r="AN13" s="35"/>
+      <c r="AO13" s="35"/>
+      <c r="AP13" s="35"/>
+      <c r="AQ13" s="35"/>
+      <c r="AR13" s="35"/>
+      <c r="AS13" s="35"/>
+      <c r="AT13" s="35"/>
+      <c r="AU13" s="35"/>
+      <c r="AV13" s="35"/>
+      <c r="AW13" s="35"/>
+      <c r="AX13" s="35"/>
+      <c r="AY13" s="35"/>
+      <c r="AZ13" s="35"/>
+      <c r="BA13" s="35"/>
+      <c r="BB13" s="35"/>
+      <c r="BC13" s="35"/>
+      <c r="BD13" s="35"/>
+      <c r="BE13" s="35"/>
+      <c r="BF13" s="35"/>
+      <c r="BG13" s="35"/>
+      <c r="BH13" s="35"/>
+      <c r="BI13" s="35"/>
     </row>
     <row r="14" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="41"/>
-      <c r="N14" s="41"/>
-      <c r="O14" s="41"/>
-      <c r="P14" s="41"/>
-      <c r="Q14" s="41"/>
-      <c r="R14" s="41"/>
-      <c r="S14" s="41"/>
-      <c r="T14" s="41"/>
-      <c r="U14" s="41"/>
-      <c r="V14" s="41"/>
-      <c r="W14" s="41"/>
-      <c r="X14" s="41"/>
-      <c r="Y14" s="41"/>
-      <c r="Z14" s="41"/>
-      <c r="AA14" s="41"/>
-      <c r="AB14" s="41"/>
-      <c r="AC14" s="41"/>
-      <c r="AD14" s="41"/>
-      <c r="AE14" s="41"/>
-      <c r="AF14" s="41"/>
-      <c r="AG14" s="41"/>
-      <c r="AH14" s="41"/>
-      <c r="AI14" s="41"/>
-      <c r="AJ14" s="41"/>
-      <c r="AK14" s="41"/>
-      <c r="AL14" s="41"/>
-      <c r="AM14" s="41"/>
-      <c r="AN14" s="41"/>
-      <c r="AO14" s="41"/>
-      <c r="AP14" s="41"/>
-      <c r="AQ14" s="41"/>
-      <c r="AR14" s="41"/>
-      <c r="AS14" s="41"/>
-      <c r="AT14" s="41"/>
-      <c r="AU14" s="41"/>
-      <c r="AV14" s="41"/>
-      <c r="AW14" s="41"/>
-      <c r="AX14" s="41"/>
-      <c r="AY14" s="41"/>
-      <c r="AZ14" s="41"/>
-      <c r="BA14" s="41"/>
-      <c r="BB14" s="41"/>
-      <c r="BC14" s="41"/>
-      <c r="BD14" s="41"/>
-      <c r="BE14" s="41"/>
-      <c r="BF14" s="41"/>
-      <c r="BG14" s="41"/>
-      <c r="BH14" s="41"/>
-      <c r="BI14" s="41"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="34"/>
+      <c r="J14" s="34"/>
+      <c r="K14" s="34"/>
+      <c r="L14" s="34"/>
+      <c r="M14" s="34"/>
+      <c r="N14" s="34"/>
+      <c r="O14" s="34"/>
+      <c r="P14" s="34"/>
+      <c r="Q14" s="34"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="34"/>
+      <c r="T14" s="34"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="34"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="34"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="34"/>
+      <c r="AF14" s="34"/>
+      <c r="AG14" s="34"/>
+      <c r="AH14" s="34"/>
+      <c r="AI14" s="34"/>
+      <c r="AJ14" s="34"/>
+      <c r="AK14" s="34"/>
+      <c r="AL14" s="34"/>
+      <c r="AM14" s="34"/>
+      <c r="AN14" s="34"/>
+      <c r="AO14" s="34"/>
+      <c r="AP14" s="34"/>
+      <c r="AQ14" s="34"/>
+      <c r="AR14" s="34"/>
+      <c r="AS14" s="34"/>
+      <c r="AT14" s="34"/>
+      <c r="AU14" s="34"/>
+      <c r="AV14" s="34"/>
+      <c r="AW14" s="34"/>
+      <c r="AX14" s="34"/>
+      <c r="AY14" s="34"/>
+      <c r="AZ14" s="34"/>
+      <c r="BA14" s="34"/>
+      <c r="BB14" s="34"/>
+      <c r="BC14" s="34"/>
+      <c r="BD14" s="34"/>
+      <c r="BE14" s="34"/>
+      <c r="BF14" s="34"/>
+      <c r="BG14" s="34"/>
+      <c r="BH14" s="34"/>
+      <c r="BI14" s="34"/>
     </row>
     <row r="15" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="41"/>
-      <c r="B15" s="41"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="41"/>
-      <c r="N15" s="41"/>
-      <c r="O15" s="41"/>
-      <c r="P15" s="41"/>
-      <c r="Q15" s="41"/>
-      <c r="R15" s="41"/>
-      <c r="S15" s="41"/>
-      <c r="T15" s="41"/>
-      <c r="U15" s="41"/>
-      <c r="V15" s="41"/>
-      <c r="W15" s="41"/>
-      <c r="X15" s="41"/>
-      <c r="Y15" s="41"/>
-      <c r="Z15" s="41"/>
-      <c r="AA15" s="41"/>
-      <c r="AB15" s="41"/>
-      <c r="AC15" s="41"/>
-      <c r="AD15" s="41"/>
-      <c r="AE15" s="41"/>
-      <c r="AF15" s="41"/>
-      <c r="AG15" s="41"/>
-      <c r="AH15" s="41"/>
-      <c r="AI15" s="41"/>
-      <c r="AJ15" s="41"/>
-      <c r="AK15" s="41"/>
-      <c r="AL15" s="41"/>
-      <c r="AM15" s="41"/>
-      <c r="AN15" s="41"/>
-      <c r="AO15" s="41"/>
-      <c r="AP15" s="41"/>
-      <c r="AQ15" s="41"/>
-      <c r="AR15" s="41"/>
-      <c r="AS15" s="41"/>
-      <c r="AT15" s="41"/>
-      <c r="AU15" s="41"/>
-      <c r="AV15" s="41"/>
-      <c r="AW15" s="41"/>
-      <c r="AX15" s="41"/>
-      <c r="AY15" s="41"/>
-      <c r="AZ15" s="41"/>
-      <c r="BA15" s="41"/>
-      <c r="BB15" s="41"/>
-      <c r="BC15" s="41"/>
-      <c r="BD15" s="41"/>
-      <c r="BE15" s="41"/>
-      <c r="BF15" s="41"/>
-      <c r="BG15" s="41"/>
-      <c r="BH15" s="41"/>
-      <c r="BI15" s="41"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="34"/>
+      <c r="J15" s="34"/>
+      <c r="K15" s="34"/>
+      <c r="L15" s="34"/>
+      <c r="M15" s="34"/>
+      <c r="N15" s="34"/>
+      <c r="O15" s="34"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="34"/>
+      <c r="R15" s="34"/>
+      <c r="S15" s="34"/>
+      <c r="T15" s="34"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="34"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="34"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="34"/>
+      <c r="AF15" s="34"/>
+      <c r="AG15" s="34"/>
+      <c r="AH15" s="34"/>
+      <c r="AI15" s="34"/>
+      <c r="AJ15" s="34"/>
+      <c r="AK15" s="34"/>
+      <c r="AL15" s="34"/>
+      <c r="AM15" s="34"/>
+      <c r="AN15" s="34"/>
+      <c r="AO15" s="34"/>
+      <c r="AP15" s="34"/>
+      <c r="AQ15" s="34"/>
+      <c r="AR15" s="34"/>
+      <c r="AS15" s="34"/>
+      <c r="AT15" s="34"/>
+      <c r="AU15" s="34"/>
+      <c r="AV15" s="34"/>
+      <c r="AW15" s="34"/>
+      <c r="AX15" s="34"/>
+      <c r="AY15" s="34"/>
+      <c r="AZ15" s="34"/>
+      <c r="BA15" s="34"/>
+      <c r="BB15" s="34"/>
+      <c r="BC15" s="34"/>
+      <c r="BD15" s="34"/>
+      <c r="BE15" s="34"/>
+      <c r="BF15" s="34"/>
+      <c r="BG15" s="34"/>
+      <c r="BH15" s="34"/>
+      <c r="BI15" s="34"/>
     </row>
     <row r="16" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="41"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="41"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="41"/>
-      <c r="N16" s="41"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="41"/>
-      <c r="S16" s="41"/>
-      <c r="T16" s="41"/>
-      <c r="U16" s="41"/>
-      <c r="V16" s="41"/>
-      <c r="W16" s="41"/>
-      <c r="X16" s="41"/>
-      <c r="Y16" s="41"/>
-      <c r="Z16" s="41"/>
-      <c r="AA16" s="41"/>
-      <c r="AB16" s="41"/>
-      <c r="AC16" s="41"/>
-      <c r="AD16" s="41"/>
-      <c r="AE16" s="41"/>
-      <c r="AF16" s="41"/>
-      <c r="AG16" s="41"/>
-      <c r="AH16" s="41"/>
-      <c r="AI16" s="41"/>
-      <c r="AJ16" s="41"/>
-      <c r="AK16" s="41"/>
-      <c r="AL16" s="41"/>
-      <c r="AM16" s="41"/>
-      <c r="AN16" s="41"/>
-      <c r="AO16" s="41"/>
-      <c r="AP16" s="41"/>
-      <c r="AQ16" s="41"/>
-      <c r="AR16" s="41"/>
-      <c r="AS16" s="41"/>
-      <c r="AT16" s="41"/>
-      <c r="AU16" s="41"/>
-      <c r="AV16" s="41"/>
-      <c r="AW16" s="41"/>
-      <c r="AX16" s="41"/>
-      <c r="AY16" s="41"/>
-      <c r="AZ16" s="41"/>
-      <c r="BA16" s="41"/>
-      <c r="BB16" s="41"/>
-      <c r="BC16" s="41"/>
-      <c r="BD16" s="41"/>
-      <c r="BE16" s="41"/>
-      <c r="BF16" s="41"/>
-      <c r="BG16" s="41"/>
-      <c r="BH16" s="41"/>
-      <c r="BI16" s="41"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="34"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
+      <c r="R16" s="34"/>
+      <c r="S16" s="34"/>
+      <c r="T16" s="34"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="34"/>
+      <c r="W16" s="34"/>
+      <c r="X16" s="34"/>
+      <c r="Y16" s="34"/>
+      <c r="Z16" s="34"/>
+      <c r="AA16" s="34"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="34"/>
+      <c r="AF16" s="34"/>
+      <c r="AG16" s="34"/>
+      <c r="AH16" s="34"/>
+      <c r="AI16" s="34"/>
+      <c r="AJ16" s="34"/>
+      <c r="AK16" s="34"/>
+      <c r="AL16" s="34"/>
+      <c r="AM16" s="34"/>
+      <c r="AN16" s="34"/>
+      <c r="AO16" s="34"/>
+      <c r="AP16" s="34"/>
+      <c r="AQ16" s="34"/>
+      <c r="AR16" s="34"/>
+      <c r="AS16" s="34"/>
+      <c r="AT16" s="34"/>
+      <c r="AU16" s="34"/>
+      <c r="AV16" s="34"/>
+      <c r="AW16" s="34"/>
+      <c r="AX16" s="34"/>
+      <c r="AY16" s="34"/>
+      <c r="AZ16" s="34"/>
+      <c r="BA16" s="34"/>
+      <c r="BB16" s="34"/>
+      <c r="BC16" s="34"/>
+      <c r="BD16" s="34"/>
+      <c r="BE16" s="34"/>
+      <c r="BF16" s="34"/>
+      <c r="BG16" s="34"/>
+      <c r="BH16" s="34"/>
+      <c r="BI16" s="34"/>
     </row>
     <row r="17" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-      <c r="W17" s="41"/>
-      <c r="X17" s="41"/>
-      <c r="Y17" s="41"/>
-      <c r="Z17" s="41"/>
-      <c r="AA17" s="41"/>
-      <c r="AB17" s="41"/>
-      <c r="AC17" s="41"/>
-      <c r="AD17" s="41"/>
-      <c r="AE17" s="41"/>
-      <c r="AF17" s="41"/>
-      <c r="AG17" s="41"/>
-      <c r="AH17" s="41"/>
-      <c r="AI17" s="41"/>
-      <c r="AJ17" s="41"/>
-      <c r="AK17" s="41"/>
-      <c r="AL17" s="41"/>
-      <c r="AM17" s="41"/>
-      <c r="AN17" s="41"/>
-      <c r="AO17" s="41"/>
-      <c r="AP17" s="41"/>
-      <c r="AQ17" s="41"/>
-      <c r="AR17" s="41"/>
-      <c r="AS17" s="41"/>
-      <c r="AT17" s="41"/>
-      <c r="AU17" s="41"/>
-      <c r="AV17" s="41"/>
-      <c r="AW17" s="41"/>
-      <c r="AX17" s="41"/>
-      <c r="AY17" s="41"/>
-      <c r="AZ17" s="41"/>
-      <c r="BA17" s="41"/>
-      <c r="BB17" s="41"/>
-      <c r="BC17" s="41"/>
-      <c r="BD17" s="41"/>
-      <c r="BE17" s="41"/>
-      <c r="BF17" s="41"/>
-      <c r="BG17" s="41"/>
-      <c r="BH17" s="41"/>
-      <c r="BI17" s="41"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="34"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="34"/>
+      <c r="W17" s="34"/>
+      <c r="X17" s="34"/>
+      <c r="Y17" s="34"/>
+      <c r="Z17" s="34"/>
+      <c r="AA17" s="34"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
+      <c r="AD17" s="34"/>
+      <c r="AE17" s="34"/>
+      <c r="AF17" s="34"/>
+      <c r="AG17" s="34"/>
+      <c r="AH17" s="34"/>
+      <c r="AI17" s="34"/>
+      <c r="AJ17" s="34"/>
+      <c r="AK17" s="34"/>
+      <c r="AL17" s="34"/>
+      <c r="AM17" s="34"/>
+      <c r="AN17" s="34"/>
+      <c r="AO17" s="34"/>
+      <c r="AP17" s="34"/>
+      <c r="AQ17" s="34"/>
+      <c r="AR17" s="34"/>
+      <c r="AS17" s="34"/>
+      <c r="AT17" s="34"/>
+      <c r="AU17" s="34"/>
+      <c r="AV17" s="34"/>
+      <c r="AW17" s="34"/>
+      <c r="AX17" s="34"/>
+      <c r="AY17" s="34"/>
+      <c r="AZ17" s="34"/>
+      <c r="BA17" s="34"/>
+      <c r="BB17" s="34"/>
+      <c r="BC17" s="34"/>
+      <c r="BD17" s="34"/>
+      <c r="BE17" s="34"/>
+      <c r="BF17" s="34"/>
+      <c r="BG17" s="34"/>
+      <c r="BH17" s="34"/>
+      <c r="BI17" s="34"/>
     </row>
     <row r="18" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="41"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="41"/>
-      <c r="S18" s="41"/>
-      <c r="T18" s="41"/>
-      <c r="U18" s="41"/>
-      <c r="V18" s="41"/>
-      <c r="W18" s="41"/>
-      <c r="X18" s="41"/>
-      <c r="Y18" s="41"/>
-      <c r="Z18" s="41"/>
-      <c r="AA18" s="41"/>
-      <c r="AB18" s="41"/>
-      <c r="AC18" s="41"/>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="41"/>
-      <c r="AG18" s="41"/>
-      <c r="AH18" s="41"/>
-      <c r="AI18" s="41"/>
-      <c r="AJ18" s="41"/>
-      <c r="AK18" s="41"/>
-      <c r="AL18" s="41"/>
-      <c r="AM18" s="41"/>
-      <c r="AN18" s="41"/>
-      <c r="AO18" s="41"/>
-      <c r="AP18" s="41"/>
-      <c r="AQ18" s="41"/>
-      <c r="AR18" s="41"/>
-      <c r="AS18" s="41"/>
-      <c r="AT18" s="41"/>
-      <c r="AU18" s="41"/>
-      <c r="AV18" s="41"/>
-      <c r="AW18" s="41"/>
-      <c r="AX18" s="41"/>
-      <c r="AY18" s="41"/>
-      <c r="AZ18" s="41"/>
-      <c r="BA18" s="41"/>
-      <c r="BB18" s="41"/>
-      <c r="BC18" s="41"/>
-      <c r="BD18" s="41"/>
-      <c r="BE18" s="41"/>
-      <c r="BF18" s="41"/>
-      <c r="BG18" s="41"/>
-      <c r="BH18" s="41"/>
-      <c r="BI18" s="41"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
+      <c r="R18" s="34"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="34"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
+      <c r="W18" s="34"/>
+      <c r="X18" s="34"/>
+      <c r="Y18" s="34"/>
+      <c r="Z18" s="34"/>
+      <c r="AA18" s="34"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
+      <c r="AD18" s="34"/>
+      <c r="AE18" s="34"/>
+      <c r="AF18" s="34"/>
+      <c r="AG18" s="34"/>
+      <c r="AH18" s="34"/>
+      <c r="AI18" s="34"/>
+      <c r="AJ18" s="34"/>
+      <c r="AK18" s="34"/>
+      <c r="AL18" s="34"/>
+      <c r="AM18" s="34"/>
+      <c r="AN18" s="34"/>
+      <c r="AO18" s="34"/>
+      <c r="AP18" s="34"/>
+      <c r="AQ18" s="34"/>
+      <c r="AR18" s="34"/>
+      <c r="AS18" s="34"/>
+      <c r="AT18" s="34"/>
+      <c r="AU18" s="34"/>
+      <c r="AV18" s="34"/>
+      <c r="AW18" s="34"/>
+      <c r="AX18" s="34"/>
+      <c r="AY18" s="34"/>
+      <c r="AZ18" s="34"/>
+      <c r="BA18" s="34"/>
+      <c r="BB18" s="34"/>
+      <c r="BC18" s="34"/>
+      <c r="BD18" s="34"/>
+      <c r="BE18" s="34"/>
+      <c r="BF18" s="34"/>
+      <c r="BG18" s="34"/>
+      <c r="BH18" s="34"/>
+      <c r="BI18" s="34"/>
     </row>
     <row r="19" spans="1:61" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41"/>
-      <c r="B19" s="41"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="41"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="41"/>
-      <c r="S19" s="41"/>
-      <c r="T19" s="41"/>
-      <c r="U19" s="41"/>
-      <c r="V19" s="41"/>
-      <c r="W19" s="41"/>
-      <c r="X19" s="41"/>
-      <c r="Y19" s="41"/>
-      <c r="Z19" s="41"/>
-      <c r="AA19" s="41"/>
-      <c r="AB19" s="41"/>
-      <c r="AC19" s="41"/>
-      <c r="AD19" s="41"/>
-      <c r="AE19" s="41"/>
-      <c r="AF19" s="41"/>
-      <c r="AG19" s="41"/>
-      <c r="AH19" s="41"/>
-      <c r="AI19" s="41"/>
-      <c r="AJ19" s="41"/>
-      <c r="AK19" s="41"/>
-      <c r="AL19" s="41"/>
-      <c r="AM19" s="41"/>
-      <c r="AN19" s="41"/>
-      <c r="AO19" s="41"/>
-      <c r="AP19" s="41"/>
-      <c r="AQ19" s="41"/>
-      <c r="AR19" s="41"/>
-      <c r="AS19" s="41"/>
-      <c r="AT19" s="41"/>
-      <c r="AU19" s="41"/>
-      <c r="AV19" s="41"/>
-      <c r="AW19" s="41"/>
-      <c r="AX19" s="41"/>
-      <c r="AY19" s="41"/>
-      <c r="AZ19" s="41"/>
-      <c r="BA19" s="41"/>
-      <c r="BB19" s="41"/>
-      <c r="BC19" s="41"/>
-      <c r="BD19" s="41"/>
-      <c r="BE19" s="41"/>
-      <c r="BF19" s="41"/>
-      <c r="BG19" s="41"/>
-      <c r="BH19" s="41"/>
-      <c r="BI19" s="41"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="34"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
+      <c r="R19" s="34"/>
+      <c r="S19" s="34"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="34"/>
+      <c r="W19" s="34"/>
+      <c r="X19" s="34"/>
+      <c r="Y19" s="34"/>
+      <c r="Z19" s="34"/>
+      <c r="AA19" s="34"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="34"/>
+      <c r="AF19" s="34"/>
+      <c r="AG19" s="34"/>
+      <c r="AH19" s="34"/>
+      <c r="AI19" s="34"/>
+      <c r="AJ19" s="34"/>
+      <c r="AK19" s="34"/>
+      <c r="AL19" s="34"/>
+      <c r="AM19" s="34"/>
+      <c r="AN19" s="34"/>
+      <c r="AO19" s="34"/>
+      <c r="AP19" s="34"/>
+      <c r="AQ19" s="34"/>
+      <c r="AR19" s="34"/>
+      <c r="AS19" s="34"/>
+      <c r="AT19" s="34"/>
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="34"/>
+      <c r="AX19" s="34"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="34"/>
+      <c r="BD19" s="34"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="34"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="47">
-    <mergeCell ref="A14:BI19"/>
-    <mergeCell ref="A13:BI13"/>
-    <mergeCell ref="A10:J10"/>
-    <mergeCell ref="K10:T10"/>
-    <mergeCell ref="U10:AD10"/>
-    <mergeCell ref="AE10:AN10"/>
-    <mergeCell ref="AO10:BI10"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="K11:T11"/>
-    <mergeCell ref="U11:AD11"/>
-    <mergeCell ref="AE11:AN11"/>
-    <mergeCell ref="AO11:BI11"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A8:J8"/>
-    <mergeCell ref="K8:T8"/>
-    <mergeCell ref="U8:AD8"/>
-    <mergeCell ref="AE8:AN8"/>
-    <mergeCell ref="AO8:BI8"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="K9:T9"/>
-    <mergeCell ref="U9:AD9"/>
-    <mergeCell ref="AE9:AN9"/>
-    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="R1:AA1"/>
+    <mergeCell ref="AB1:AD1"/>
+    <mergeCell ref="AE1:AP1"/>
+    <mergeCell ref="AQ1:AS1"/>
     <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -2695,14 +2680,29 @@
     <mergeCell ref="R2:AA2"/>
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="R1:AA1"/>
-    <mergeCell ref="AB1:AD1"/>
-    <mergeCell ref="AE1:AP1"/>
-    <mergeCell ref="AQ1:AS1"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="K9:T9"/>
+    <mergeCell ref="U9:AD9"/>
+    <mergeCell ref="AE9:AN9"/>
+    <mergeCell ref="AO9:BI9"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A8:J8"/>
+    <mergeCell ref="K8:T8"/>
+    <mergeCell ref="U8:AD8"/>
+    <mergeCell ref="AE8:AN8"/>
+    <mergeCell ref="AO8:BI8"/>
+    <mergeCell ref="A14:BI19"/>
+    <mergeCell ref="A13:BI13"/>
+    <mergeCell ref="A10:J10"/>
+    <mergeCell ref="K10:T10"/>
+    <mergeCell ref="U10:AD10"/>
+    <mergeCell ref="AE10:AN10"/>
+    <mergeCell ref="AO10:BI10"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="K11:T11"/>
+    <mergeCell ref="U11:AD11"/>
+    <mergeCell ref="AE11:AN11"/>
+    <mergeCell ref="AO11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <printOptions horizontalCentered="1"/>
@@ -2726,86 +2726,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="39">
         <f>クラス仕様!AE1</f>
         <v>0</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="36">
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="37">
         <v>45000</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -3005,82 +3005,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="str">
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="39" t="str">
         <f>クラス仕様!G5</f>
         <v>AbstractService</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="35" t="s">
-        <v>60</v>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="39" t="s">
+        <v>59</v>
       </c>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="42">
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="48">
         <v>45565</v>
       </c>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="44"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="50"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -3343,71 +3343,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
-        <v>57</v>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>56</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -3607,71 +3607,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
-        <v>56</v>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>55</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -4131,75 +4131,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48" t="s">
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44"/>
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -4405,7 +4405,7 @@
       <c r="B8" s="46"/>
       <c r="C8" s="47"/>
       <c r="D8" s="45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
@@ -4663,71 +4663,71 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
-        <v>43</v>
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="s">
+        <v>42</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50"/>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50"/>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="50"/>
-      <c r="BE9" s="50"/>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="43"/>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -4927,73 +4927,73 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41" t="s">
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -5193,67 +5193,67 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="43"/>
+      <c r="AX11" s="43"/>
+      <c r="AY11" s="43"/>
+      <c r="AZ11" s="43"/>
+      <c r="BA11" s="43"/>
+      <c r="BB11" s="43"/>
+      <c r="BC11" s="43"/>
+      <c r="BD11" s="43"/>
+      <c r="BE11" s="43"/>
+      <c r="BF11" s="43"/>
+      <c r="BG11" s="43"/>
+      <c r="BH11" s="43"/>
+      <c r="BI11" s="43"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -5713,73 +5713,73 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48" t="s">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="44"/>
+      <c r="BD13" s="44"/>
+      <c r="BE13" s="44"/>
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="44"/>
+      <c r="BH13" s="44"/>
+      <c r="BI13" s="44"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -5995,7 +5995,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
       <c r="P14" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
@@ -6257,7 +6257,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
       <c r="P15" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
@@ -12443,29 +12443,11 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:O7"/>
-    <mergeCell ref="P7:AD7"/>
-    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="R2:AA2"/>
+    <mergeCell ref="AB2:AD2"/>
+    <mergeCell ref="AE2:AP2"/>
+    <mergeCell ref="AQ2:AS2"/>
+    <mergeCell ref="AT2:AZ2"/>
     <mergeCell ref="BA2:BC2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="G4:BI4"/>
@@ -12482,11 +12464,29 @@
     <mergeCell ref="AT1:AZ1"/>
     <mergeCell ref="BA1:BC1"/>
     <mergeCell ref="BD1:BI1"/>
-    <mergeCell ref="R2:AA2"/>
-    <mergeCell ref="AB2:AD2"/>
-    <mergeCell ref="AE2:AP2"/>
-    <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:O7"/>
+    <mergeCell ref="P7:AD7"/>
+    <mergeCell ref="AE7:BI7"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <dataValidations count="2">
@@ -12518,86 +12518,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="34" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="35" t="s">
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="34" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="39"/>
+      <c r="U1" s="39"/>
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="39"/>
+      <c r="AB1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="34"/>
-      <c r="AE1" s="35">
+      <c r="AC1" s="40"/>
+      <c r="AD1" s="40"/>
+      <c r="AE1" s="39">
         <f>クラス仕様!AE1</f>
         <v>0</v>
       </c>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="34" t="s">
+      <c r="AF1" s="39"/>
+      <c r="AG1" s="39"/>
+      <c r="AH1" s="39"/>
+      <c r="AI1" s="39"/>
+      <c r="AJ1" s="39"/>
+      <c r="AK1" s="39"/>
+      <c r="AL1" s="39"/>
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+      <c r="AP1" s="39"/>
+      <c r="AQ1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="AR1" s="34"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35" t="s">
+      <c r="AR1" s="40"/>
+      <c r="AS1" s="40"/>
+      <c r="AT1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34" t="s">
+      <c r="AU1" s="39"/>
+      <c r="AV1" s="39"/>
+      <c r="AW1" s="39"/>
+      <c r="AX1" s="39"/>
+      <c r="AY1" s="39"/>
+      <c r="AZ1" s="39"/>
+      <c r="BA1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BB1" s="34"/>
-      <c r="BC1" s="34"/>
-      <c r="BD1" s="36">
+      <c r="BB1" s="40"/>
+      <c r="BC1" s="40"/>
+      <c r="BD1" s="37">
         <v>45000</v>
       </c>
-      <c r="BE1" s="36"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="36"/>
+      <c r="BE1" s="37"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="37"/>
       <c r="BJ1" s="1"/>
       <c r="BK1" s="1"/>
       <c r="BL1" s="1"/>
@@ -12797,82 +12797,82 @@
       <c r="IX1" s="1"/>
     </row>
     <row r="2" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="34" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38"/>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38"/>
+      <c r="M2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="40"/>
-      <c r="S2" s="40"/>
-      <c r="T2" s="40"/>
-      <c r="U2" s="40"/>
-      <c r="V2" s="40"/>
-      <c r="W2" s="40"/>
-      <c r="X2" s="40"/>
-      <c r="Y2" s="40"/>
-      <c r="Z2" s="40"/>
-      <c r="AA2" s="40"/>
-      <c r="AB2" s="34" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40"/>
+      <c r="P2" s="40"/>
+      <c r="Q2" s="40"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="AC2" s="34"/>
-      <c r="AD2" s="34"/>
-      <c r="AE2" s="35" t="str">
+      <c r="AC2" s="40"/>
+      <c r="AD2" s="40"/>
+      <c r="AE2" s="39" t="str">
         <f>クラス仕様!G5</f>
         <v>AbstractService</v>
       </c>
-      <c r="AF2" s="35"/>
-      <c r="AG2" s="35"/>
-      <c r="AH2" s="35"/>
-      <c r="AI2" s="35"/>
-      <c r="AJ2" s="35"/>
-      <c r="AK2" s="35"/>
-      <c r="AL2" s="35"/>
-      <c r="AM2" s="35"/>
-      <c r="AN2" s="35"/>
-      <c r="AO2" s="35"/>
-      <c r="AP2" s="35"/>
-      <c r="AQ2" s="34" t="s">
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="AR2" s="34"/>
-      <c r="AS2" s="34"/>
-      <c r="AT2" s="35" t="s">
-        <v>61</v>
+      <c r="AR2" s="40"/>
+      <c r="AS2" s="40"/>
+      <c r="AT2" s="39" t="s">
+        <v>60</v>
       </c>
-      <c r="AU2" s="35"/>
-      <c r="AV2" s="35"/>
-      <c r="AW2" s="35"/>
-      <c r="AX2" s="35"/>
-      <c r="AY2" s="35"/>
-      <c r="AZ2" s="35"/>
-      <c r="BA2" s="34" t="s">
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="BB2" s="34"/>
-      <c r="BC2" s="34"/>
-      <c r="BD2" s="42">
+      <c r="BB2" s="40"/>
+      <c r="BC2" s="40"/>
+      <c r="BD2" s="48">
         <v>45565</v>
       </c>
-      <c r="BE2" s="43"/>
-      <c r="BF2" s="43"/>
-      <c r="BG2" s="43"/>
-      <c r="BH2" s="43"/>
-      <c r="BI2" s="44"/>
+      <c r="BE2" s="49"/>
+      <c r="BF2" s="49"/>
+      <c r="BG2" s="49"/>
+      <c r="BH2" s="49"/>
+      <c r="BI2" s="50"/>
       <c r="BJ2" s="1"/>
       <c r="BK2" s="1"/>
       <c r="BL2" s="1"/>
@@ -13135,71 +13135,71 @@
       <c r="BI3" s="3"/>
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38" t="s">
-        <v>55</v>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="36" t="s">
+        <v>54</v>
       </c>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="38"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="38"/>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="38"/>
-      <c r="AC4" s="38"/>
-      <c r="AD4" s="38"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="38"/>
-      <c r="AJ4" s="38"/>
-      <c r="AK4" s="38"/>
-      <c r="AL4" s="38"/>
-      <c r="AM4" s="38"/>
-      <c r="AN4" s="38"/>
-      <c r="AO4" s="38"/>
-      <c r="AP4" s="38"/>
-      <c r="AQ4" s="38"/>
-      <c r="AR4" s="38"/>
-      <c r="AS4" s="38"/>
-      <c r="AT4" s="38"/>
-      <c r="AU4" s="38"/>
-      <c r="AV4" s="38"/>
-      <c r="AW4" s="38"/>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="36"/>
+      <c r="O4" s="36"/>
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="36"/>
+      <c r="X4" s="36"/>
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="36"/>
+      <c r="AC4" s="36"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="36"/>
+      <c r="AG4" s="36"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="36"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="36"/>
+      <c r="AW4" s="36"/>
+      <c r="AX4" s="36"/>
+      <c r="AY4" s="36"/>
+      <c r="AZ4" s="36"/>
+      <c r="BA4" s="36"/>
+      <c r="BB4" s="36"/>
+      <c r="BC4" s="36"/>
+      <c r="BD4" s="36"/>
+      <c r="BE4" s="36"/>
+      <c r="BF4" s="36"/>
+      <c r="BG4" s="36"/>
+      <c r="BH4" s="36"/>
+      <c r="BI4" s="36"/>
       <c r="BJ4" s="1"/>
       <c r="BK4" s="1"/>
       <c r="BL4" s="1"/>
@@ -13399,71 +13399,71 @@
       <c r="IX4" s="1"/>
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38" t="s">
-        <v>48</v>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>47</v>
       </c>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="38"/>
-      <c r="Q5" s="38"/>
-      <c r="R5" s="38"/>
-      <c r="S5" s="38"/>
-      <c r="T5" s="38"/>
-      <c r="U5" s="38"/>
-      <c r="V5" s="38"/>
-      <c r="W5" s="38"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="38"/>
-      <c r="AA5" s="38"/>
-      <c r="AB5" s="38"/>
-      <c r="AC5" s="38"/>
-      <c r="AD5" s="38"/>
-      <c r="AE5" s="38"/>
-      <c r="AF5" s="38"/>
-      <c r="AG5" s="38"/>
-      <c r="AH5" s="38"/>
-      <c r="AI5" s="38"/>
-      <c r="AJ5" s="38"/>
-      <c r="AK5" s="38"/>
-      <c r="AL5" s="38"/>
-      <c r="AM5" s="38"/>
-      <c r="AN5" s="38"/>
-      <c r="AO5" s="38"/>
-      <c r="AP5" s="38"/>
-      <c r="AQ5" s="38"/>
-      <c r="AR5" s="38"/>
-      <c r="AS5" s="38"/>
-      <c r="AT5" s="38"/>
-      <c r="AU5" s="38"/>
-      <c r="AV5" s="38"/>
-      <c r="AW5" s="38"/>
-      <c r="AX5" s="38"/>
-      <c r="AY5" s="38"/>
-      <c r="AZ5" s="38"/>
-      <c r="BA5" s="38"/>
-      <c r="BB5" s="38"/>
-      <c r="BC5" s="38"/>
-      <c r="BD5" s="38"/>
-      <c r="BE5" s="38"/>
-      <c r="BF5" s="38"/>
-      <c r="BG5" s="38"/>
-      <c r="BH5" s="38"/>
-      <c r="BI5" s="38"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="36"/>
+      <c r="U5" s="36"/>
+      <c r="V5" s="36"/>
+      <c r="W5" s="36"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
+      <c r="AB5" s="36"/>
+      <c r="AC5" s="36"/>
+      <c r="AD5" s="36"/>
+      <c r="AE5" s="36"/>
+      <c r="AF5" s="36"/>
+      <c r="AG5" s="36"/>
+      <c r="AH5" s="36"/>
+      <c r="AI5" s="36"/>
+      <c r="AJ5" s="36"/>
+      <c r="AK5" s="36"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="36"/>
+      <c r="AN5" s="36"/>
+      <c r="AO5" s="36"/>
+      <c r="AP5" s="36"/>
+      <c r="AQ5" s="36"/>
+      <c r="AR5" s="36"/>
+      <c r="AS5" s="36"/>
+      <c r="AT5" s="36"/>
+      <c r="AU5" s="36"/>
+      <c r="AV5" s="36"/>
+      <c r="AW5" s="36"/>
+      <c r="AX5" s="36"/>
+      <c r="AY5" s="36"/>
+      <c r="AZ5" s="36"/>
+      <c r="BA5" s="36"/>
+      <c r="BB5" s="36"/>
+      <c r="BC5" s="36"/>
+      <c r="BD5" s="36"/>
+      <c r="BE5" s="36"/>
+      <c r="BF5" s="36"/>
+      <c r="BG5" s="36"/>
+      <c r="BH5" s="36"/>
+      <c r="BI5" s="36"/>
       <c r="BJ5" s="1"/>
       <c r="BK5" s="1"/>
       <c r="BL5" s="1"/>
@@ -13923,75 +13923,75 @@
       <c r="IX6" s="1"/>
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48" t="s">
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="44"/>
+      <c r="M7" s="44"/>
+      <c r="N7" s="44"/>
+      <c r="O7" s="44"/>
+      <c r="P7" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
-      <c r="S7" s="48"/>
-      <c r="T7" s="48"/>
-      <c r="U7" s="48"/>
-      <c r="V7" s="48"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="48"/>
-      <c r="Y7" s="48"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="48"/>
-      <c r="AB7" s="48"/>
-      <c r="AC7" s="48"/>
-      <c r="AD7" s="48"/>
-      <c r="AE7" s="48" t="s">
+      <c r="Q7" s="44"/>
+      <c r="R7" s="44"/>
+      <c r="S7" s="44"/>
+      <c r="T7" s="44"/>
+      <c r="U7" s="44"/>
+      <c r="V7" s="44"/>
+      <c r="W7" s="44"/>
+      <c r="X7" s="44"/>
+      <c r="Y7" s="44"/>
+      <c r="Z7" s="44"/>
+      <c r="AA7" s="44"/>
+      <c r="AB7" s="44"/>
+      <c r="AC7" s="44"/>
+      <c r="AD7" s="44"/>
+      <c r="AE7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="AF7" s="48"/>
-      <c r="AG7" s="48"/>
-      <c r="AH7" s="48"/>
-      <c r="AI7" s="48"/>
-      <c r="AJ7" s="48"/>
-      <c r="AK7" s="48"/>
-      <c r="AL7" s="48"/>
-      <c r="AM7" s="48"/>
-      <c r="AN7" s="48"/>
-      <c r="AO7" s="48"/>
-      <c r="AP7" s="48"/>
-      <c r="AQ7" s="48"/>
-      <c r="AR7" s="48"/>
-      <c r="AS7" s="48"/>
-      <c r="AT7" s="48"/>
-      <c r="AU7" s="48"/>
-      <c r="AV7" s="48"/>
-      <c r="AW7" s="48"/>
-      <c r="AX7" s="48"/>
-      <c r="AY7" s="48"/>
-      <c r="AZ7" s="48"/>
-      <c r="BA7" s="48"/>
-      <c r="BB7" s="48"/>
-      <c r="BC7" s="48"/>
-      <c r="BD7" s="48"/>
-      <c r="BE7" s="48"/>
-      <c r="BF7" s="48"/>
-      <c r="BG7" s="48"/>
-      <c r="BH7" s="48"/>
-      <c r="BI7" s="48"/>
+      <c r="AF7" s="44"/>
+      <c r="AG7" s="44"/>
+      <c r="AH7" s="44"/>
+      <c r="AI7" s="44"/>
+      <c r="AJ7" s="44"/>
+      <c r="AK7" s="44"/>
+      <c r="AL7" s="44"/>
+      <c r="AM7" s="44"/>
+      <c r="AN7" s="44"/>
+      <c r="AO7" s="44"/>
+      <c r="AP7" s="44"/>
+      <c r="AQ7" s="44"/>
+      <c r="AR7" s="44"/>
+      <c r="AS7" s="44"/>
+      <c r="AT7" s="44"/>
+      <c r="AU7" s="44"/>
+      <c r="AV7" s="44"/>
+      <c r="AW7" s="44"/>
+      <c r="AX7" s="44"/>
+      <c r="AY7" s="44"/>
+      <c r="AZ7" s="44"/>
+      <c r="BA7" s="44"/>
+      <c r="BB7" s="44"/>
+      <c r="BC7" s="44"/>
+      <c r="BD7" s="44"/>
+      <c r="BE7" s="44"/>
+      <c r="BF7" s="44"/>
+      <c r="BG7" s="44"/>
+      <c r="BH7" s="44"/>
+      <c r="BI7" s="44"/>
       <c r="BJ7" s="1"/>
       <c r="BK7" s="1"/>
       <c r="BL7" s="1"/>
@@ -14455,75 +14455,75 @@
       <c r="IX8" s="1"/>
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="49" t="s">
+      <c r="A9" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="50" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
-      <c r="O9" s="50"/>
-      <c r="P9" s="50" t="s">
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+      <c r="S9" s="43"/>
+      <c r="T9" s="43"/>
+      <c r="U9" s="43"/>
+      <c r="V9" s="43"/>
+      <c r="W9" s="43"/>
+      <c r="X9" s="43"/>
+      <c r="Y9" s="43"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="43"/>
+      <c r="AE9" s="43" t="s">
         <v>49</v>
       </c>
-      <c r="Q9" s="50"/>
-      <c r="R9" s="50"/>
-      <c r="S9" s="50"/>
-      <c r="T9" s="50"/>
-      <c r="U9" s="50"/>
-      <c r="V9" s="50"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="50"/>
-      <c r="Y9" s="50"/>
-      <c r="Z9" s="50"/>
-      <c r="AA9" s="50"/>
-      <c r="AB9" s="50"/>
-      <c r="AC9" s="50"/>
-      <c r="AD9" s="50"/>
-      <c r="AE9" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="AF9" s="50"/>
-      <c r="AG9" s="50"/>
-      <c r="AH9" s="50"/>
-      <c r="AI9" s="50"/>
-      <c r="AJ9" s="50"/>
-      <c r="AK9" s="50"/>
-      <c r="AL9" s="50"/>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
-      <c r="AU9" s="50"/>
-      <c r="AV9" s="50"/>
-      <c r="AW9" s="50"/>
-      <c r="AX9" s="50"/>
-      <c r="AY9" s="50"/>
-      <c r="AZ9" s="50"/>
-      <c r="BA9" s="50"/>
-      <c r="BB9" s="50"/>
-      <c r="BC9" s="50"/>
-      <c r="BD9" s="50"/>
-      <c r="BE9" s="50"/>
-      <c r="BF9" s="50"/>
-      <c r="BG9" s="50"/>
-      <c r="BH9" s="50"/>
-      <c r="BI9" s="50"/>
+      <c r="AF9" s="43"/>
+      <c r="AG9" s="43"/>
+      <c r="AH9" s="43"/>
+      <c r="AI9" s="43"/>
+      <c r="AJ9" s="43"/>
+      <c r="AK9" s="43"/>
+      <c r="AL9" s="43"/>
+      <c r="AM9" s="43"/>
+      <c r="AN9" s="43"/>
+      <c r="AO9" s="43"/>
+      <c r="AP9" s="43"/>
+      <c r="AQ9" s="43"/>
+      <c r="AR9" s="43"/>
+      <c r="AS9" s="43"/>
+      <c r="AT9" s="43"/>
+      <c r="AU9" s="43"/>
+      <c r="AV9" s="43"/>
+      <c r="AW9" s="43"/>
+      <c r="AX9" s="43"/>
+      <c r="AY9" s="43"/>
+      <c r="AZ9" s="43"/>
+      <c r="BA9" s="43"/>
+      <c r="BB9" s="43"/>
+      <c r="BC9" s="43"/>
+      <c r="BD9" s="43"/>
+      <c r="BE9" s="43"/>
+      <c r="BF9" s="43"/>
+      <c r="BG9" s="43"/>
+      <c r="BH9" s="43"/>
+      <c r="BI9" s="43"/>
       <c r="BJ9" s="1"/>
       <c r="BK9" s="1"/>
       <c r="BL9" s="1"/>
@@ -14723,73 +14723,73 @@
       <c r="IX9" s="1"/>
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41" t="s">
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="34"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="34"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41" t="s">
-        <v>47</v>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="34"/>
+      <c r="S10" s="34"/>
+      <c r="T10" s="34"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="34"/>
+      <c r="W10" s="34"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="34"/>
+      <c r="AA10" s="34"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
+      <c r="AD10" s="34"/>
+      <c r="AE10" s="34" t="s">
+        <v>46</v>
       </c>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
-      <c r="AO10" s="41"/>
-      <c r="AP10" s="41"/>
-      <c r="AQ10" s="41"/>
-      <c r="AR10" s="41"/>
-      <c r="AS10" s="41"/>
-      <c r="AT10" s="41"/>
-      <c r="AU10" s="41"/>
-      <c r="AV10" s="41"/>
-      <c r="AW10" s="41"/>
-      <c r="AX10" s="41"/>
-      <c r="AY10" s="41"/>
-      <c r="AZ10" s="41"/>
-      <c r="BA10" s="41"/>
-      <c r="BB10" s="41"/>
-      <c r="BC10" s="41"/>
-      <c r="BD10" s="41"/>
-      <c r="BE10" s="41"/>
-      <c r="BF10" s="41"/>
-      <c r="BG10" s="41"/>
-      <c r="BH10" s="41"/>
-      <c r="BI10" s="41"/>
+      <c r="AF10" s="34"/>
+      <c r="AG10" s="34"/>
+      <c r="AH10" s="34"/>
+      <c r="AI10" s="34"/>
+      <c r="AJ10" s="34"/>
+      <c r="AK10" s="34"/>
+      <c r="AL10" s="34"/>
+      <c r="AM10" s="34"/>
+      <c r="AN10" s="34"/>
+      <c r="AO10" s="34"/>
+      <c r="AP10" s="34"/>
+      <c r="AQ10" s="34"/>
+      <c r="AR10" s="34"/>
+      <c r="AS10" s="34"/>
+      <c r="AT10" s="34"/>
+      <c r="AU10" s="34"/>
+      <c r="AV10" s="34"/>
+      <c r="AW10" s="34"/>
+      <c r="AX10" s="34"/>
+      <c r="AY10" s="34"/>
+      <c r="AZ10" s="34"/>
+      <c r="BA10" s="34"/>
+      <c r="BB10" s="34"/>
+      <c r="BC10" s="34"/>
+      <c r="BD10" s="34"/>
+      <c r="BE10" s="34"/>
+      <c r="BF10" s="34"/>
+      <c r="BG10" s="34"/>
+      <c r="BH10" s="34"/>
+      <c r="BI10" s="34"/>
       <c r="BJ10" s="1"/>
       <c r="BK10" s="1"/>
       <c r="BL10" s="1"/>
@@ -14989,67 +14989,67 @@
       <c r="IX10" s="1"/>
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="49"/>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-      <c r="L11" s="50"/>
-      <c r="M11" s="50"/>
-      <c r="N11" s="50"/>
-      <c r="O11" s="50"/>
-      <c r="P11" s="50"/>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="S11" s="50"/>
-      <c r="T11" s="50"/>
-      <c r="U11" s="50"/>
-      <c r="V11" s="50"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="50"/>
-      <c r="Y11" s="50"/>
-      <c r="Z11" s="50"/>
-      <c r="AA11" s="50"/>
-      <c r="AB11" s="50"/>
-      <c r="AC11" s="50"/>
-      <c r="AD11" s="50"/>
-      <c r="AE11" s="50"/>
-      <c r="AF11" s="50"/>
-      <c r="AG11" s="50"/>
-      <c r="AH11" s="50"/>
-      <c r="AI11" s="50"/>
-      <c r="AJ11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
-      <c r="AU11" s="50"/>
-      <c r="AV11" s="50"/>
-      <c r="AW11" s="50"/>
-      <c r="AX11" s="50"/>
-      <c r="AY11" s="50"/>
-      <c r="AZ11" s="50"/>
-      <c r="BA11" s="50"/>
-      <c r="BB11" s="50"/>
-      <c r="BC11" s="50"/>
-      <c r="BD11" s="50"/>
-      <c r="BE11" s="50"/>
-      <c r="BF11" s="50"/>
-      <c r="BG11" s="50"/>
-      <c r="BH11" s="50"/>
-      <c r="BI11" s="50"/>
+      <c r="A11" s="42"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+      <c r="L11" s="43"/>
+      <c r="M11" s="43"/>
+      <c r="N11" s="43"/>
+      <c r="O11" s="43"/>
+      <c r="P11" s="43"/>
+      <c r="Q11" s="43"/>
+      <c r="R11" s="43"/>
+      <c r="S11" s="43"/>
+      <c r="T11" s="43"/>
+      <c r="U11" s="43"/>
+      <c r="V11" s="43"/>
+      <c r="W11" s="43"/>
+      <c r="X11" s="43"/>
+      <c r="Y11" s="43"/>
+      <c r="Z11" s="43"/>
+      <c r="AA11" s="43"/>
+      <c r="AB11" s="43"/>
+      <c r="AC11" s="43"/>
+      <c r="AD11" s="43"/>
+      <c r="AE11" s="43"/>
+      <c r="AF11" s="43"/>
+      <c r="AG11" s="43"/>
+      <c r="AH11" s="43"/>
+      <c r="AI11" s="43"/>
+      <c r="AJ11" s="43"/>
+      <c r="AK11" s="43"/>
+      <c r="AL11" s="43"/>
+      <c r="AM11" s="43"/>
+      <c r="AN11" s="43"/>
+      <c r="AO11" s="43"/>
+      <c r="AP11" s="43"/>
+      <c r="AQ11" s="43"/>
+      <c r="AR11" s="43"/>
+      <c r="AS11" s="43"/>
+      <c r="AT11" s="43"/>
+      <c r="AU11" s="43"/>
+      <c r="AV11" s="43"/>
+      <c r="AW11" s="43"/>
+      <c r="AX11" s="43"/>
+      <c r="AY11" s="43"/>
+      <c r="AZ11" s="43"/>
+      <c r="BA11" s="43"/>
+      <c r="BB11" s="43"/>
+      <c r="BC11" s="43"/>
+      <c r="BD11" s="43"/>
+      <c r="BE11" s="43"/>
+      <c r="BF11" s="43"/>
+      <c r="BG11" s="43"/>
+      <c r="BH11" s="43"/>
+      <c r="BI11" s="43"/>
       <c r="BJ11" s="1"/>
       <c r="BK11" s="1"/>
       <c r="BL11" s="1"/>
@@ -15509,73 +15509,73 @@
       <c r="IX12" s="1"/>
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="48" t="s">
+      <c r="A13" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48" t="s">
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="44"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="44"/>
+      <c r="L13" s="44"/>
+      <c r="M13" s="44"/>
+      <c r="N13" s="44"/>
+      <c r="O13" s="44"/>
+      <c r="P13" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="S13" s="48"/>
-      <c r="T13" s="48"/>
-      <c r="U13" s="48"/>
-      <c r="V13" s="48"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="48"/>
-      <c r="Y13" s="48"/>
-      <c r="Z13" s="48"/>
-      <c r="AA13" s="48"/>
-      <c r="AB13" s="48"/>
-      <c r="AC13" s="48"/>
-      <c r="AD13" s="48"/>
-      <c r="AE13" s="48"/>
-      <c r="AF13" s="48"/>
-      <c r="AG13" s="48"/>
-      <c r="AH13" s="48"/>
-      <c r="AI13" s="48"/>
-      <c r="AJ13" s="48"/>
-      <c r="AK13" s="48"/>
-      <c r="AL13" s="48"/>
-      <c r="AM13" s="48"/>
-      <c r="AN13" s="48"/>
-      <c r="AO13" s="48"/>
-      <c r="AP13" s="48"/>
-      <c r="AQ13" s="48"/>
-      <c r="AR13" s="48"/>
-      <c r="AS13" s="48"/>
-      <c r="AT13" s="48" t="s">
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
+      <c r="S13" s="44"/>
+      <c r="T13" s="44"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="44"/>
+      <c r="W13" s="44"/>
+      <c r="X13" s="44"/>
+      <c r="Y13" s="44"/>
+      <c r="Z13" s="44"/>
+      <c r="AA13" s="44"/>
+      <c r="AB13" s="44"/>
+      <c r="AC13" s="44"/>
+      <c r="AD13" s="44"/>
+      <c r="AE13" s="44"/>
+      <c r="AF13" s="44"/>
+      <c r="AG13" s="44"/>
+      <c r="AH13" s="44"/>
+      <c r="AI13" s="44"/>
+      <c r="AJ13" s="44"/>
+      <c r="AK13" s="44"/>
+      <c r="AL13" s="44"/>
+      <c r="AM13" s="44"/>
+      <c r="AN13" s="44"/>
+      <c r="AO13" s="44"/>
+      <c r="AP13" s="44"/>
+      <c r="AQ13" s="44"/>
+      <c r="AR13" s="44"/>
+      <c r="AS13" s="44"/>
+      <c r="AT13" s="44" t="s">
         <v>27</v>
       </c>
-      <c r="AU13" s="48"/>
-      <c r="AV13" s="48"/>
-      <c r="AW13" s="48"/>
-      <c r="AX13" s="48"/>
-      <c r="AY13" s="48"/>
-      <c r="AZ13" s="48"/>
-      <c r="BA13" s="48"/>
-      <c r="BB13" s="48"/>
-      <c r="BC13" s="48"/>
-      <c r="BD13" s="48"/>
-      <c r="BE13" s="48"/>
-      <c r="BF13" s="48"/>
-      <c r="BG13" s="48"/>
-      <c r="BH13" s="48"/>
-      <c r="BI13" s="48"/>
+      <c r="AU13" s="44"/>
+      <c r="AV13" s="44"/>
+      <c r="AW13" s="44"/>
+      <c r="AX13" s="44"/>
+      <c r="AY13" s="44"/>
+      <c r="AZ13" s="44"/>
+      <c r="BA13" s="44"/>
+      <c r="BB13" s="44"/>
+      <c r="BC13" s="44"/>
+      <c r="BD13" s="44"/>
+      <c r="BE13" s="44"/>
+      <c r="BF13" s="44"/>
+      <c r="BG13" s="44"/>
+      <c r="BH13" s="44"/>
+      <c r="BI13" s="44"/>
       <c r="BJ13" s="1"/>
       <c r="BK13" s="1"/>
       <c r="BL13" s="1"/>
@@ -15791,7 +15791,7 @@
       <c r="N14" s="6"/>
       <c r="O14" s="7"/>
       <c r="P14" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="Q14" s="9"/>
       <c r="R14" s="9"/>
@@ -16053,7 +16053,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="14"/>
       <c r="Q15" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -16316,7 +16316,7 @@
       <c r="P16" s="15"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="S16" s="16"/>
       <c r="T16" s="16"/>
@@ -16575,7 +16575,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="14"/>
       <c r="P17" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
@@ -22242,6 +22242,34 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:O9"/>
+    <mergeCell ref="P9:AD9"/>
+    <mergeCell ref="AE9:BI9"/>
+    <mergeCell ref="A13:O13"/>
+    <mergeCell ref="P13:AS13"/>
+    <mergeCell ref="AT13:BI13"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:O10"/>
+    <mergeCell ref="P10:AD10"/>
+    <mergeCell ref="AE10:BI10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:O11"/>
+    <mergeCell ref="P11:AD11"/>
+    <mergeCell ref="AE11:BI11"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:BI4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="G5:BI5"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:O8"/>
+    <mergeCell ref="P8:AD8"/>
+    <mergeCell ref="AE8:BI8"/>
+    <mergeCell ref="AT2:AZ2"/>
+    <mergeCell ref="BA2:BC2"/>
+    <mergeCell ref="A1:L2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="BD2:BI2"/>
     <mergeCell ref="R1:AA1"/>
     <mergeCell ref="AB1:AD1"/>
     <mergeCell ref="AE1:AP1"/>
@@ -22258,34 +22286,6 @@
     <mergeCell ref="AB2:AD2"/>
     <mergeCell ref="AE2:AP2"/>
     <mergeCell ref="AQ2:AS2"/>
-    <mergeCell ref="AT2:AZ2"/>
-    <mergeCell ref="BA2:BC2"/>
-    <mergeCell ref="A1:L2"/>
-    <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="BD2:BI2"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:BI4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="G5:BI5"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:O8"/>
-    <mergeCell ref="P8:AD8"/>
-    <mergeCell ref="AE8:BI8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:O9"/>
-    <mergeCell ref="P9:AD9"/>
-    <mergeCell ref="AE9:BI9"/>
-    <mergeCell ref="A13:O13"/>
-    <mergeCell ref="P13:AS13"/>
-    <mergeCell ref="AT13:BI13"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:O10"/>
-    <mergeCell ref="P10:AD10"/>
-    <mergeCell ref="AE10:BI10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:O11"/>
-    <mergeCell ref="P11:AD11"/>
-    <mergeCell ref="AE11:BI11"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <dataValidations count="2">
@@ -22304,21 +22304,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -22450,24 +22435,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7560E91F-1ABF-4BEF-A078-A8FA5AD9AA18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22483,4 +22466,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>